--- a/data/S$NEER.xlsx
+++ b/data/S$NEER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" saveExternalLinkValues="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C52E402E-BC71-4528-8559-B93AEE2906D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2FAFF-FD68-4F82-BB5E-F0749B1A924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22930" yWindow="-110" windowWidth="30940" windowHeight="16900" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1999-00" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2017-18'!$A$1:$B$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2019-20'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2021-22'!$A$1:$C$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023'!$A$1:$C$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023'!$A$1:$C$58</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1999-00'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2001-02'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2003-04'!$1:$7</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="121">
   <si>
     <t xml:space="preserve">1999 Jan 8  </t>
   </si>
@@ -422,7 +422,7 @@
     <t>S$NEER - 2023</t>
   </si>
   <si>
-    <t>Data Last Updated: 6 November 2023, 12pm</t>
+    <t>Data Last Updated: 4 December 2023, 12pm</t>
   </si>
 </sst>
 </file>
@@ -5642,13 +5642,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G70" sqref="G70"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6158,33 +6158,77 @@
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="11">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="15"/>
       <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>10</v>
+      </c>
+      <c r="B52" s="11">
+        <v>137.94999999999999</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="15"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>120</v>
-      </c>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>17</v>
+      </c>
+      <c r="B53" s="11">
+        <v>137.91999999999999</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="15"/>
       <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>24</v>
+      </c>
+      <c r="B54" s="11">
+        <v>138.07</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="15"/>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
       <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A57" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="G57" s="16"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="24"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="16"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="16"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15188,6 +15232,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="afabadb4-2257-48ec-869f-64421b8f49cd" ContentTypeId="0x0101003618E443DE96424ABE734F4442FBF2B301" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MAS Team Document" ma:contentTypeID="0x0101003618E443DE96424ABE734F4442FBF2B30100A049349C955CBC409819E2464551F052" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document specific to MAS Team Collaboration." ma:contentTypeScope="" ma:versionID="99b6c2e5e6a62f4a47c2c9b80d9ed879">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a90f38b-cee7-4289-b705-21e4ceceb96b" xmlns:ns4="eb98edff-86eb-4b42-ad62-1a553ba43033" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1700ab521322483cad2fe357906d8f66" ns2:_="" ns4:_="">
     <xsd:import namespace="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
@@ -15464,7 +15513,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
@@ -15506,7 +15555,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -15515,12 +15564,15 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="afabadb4-2257-48ec-869f-64421b8f49cd" ContentTypeId="0x0101003618E443DE96424ABE734F4442FBF2B301" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A6E1E2-BE9F-46D5-A72A-8F4CBCC2457C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15539,7 +15591,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -15549,18 +15601,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/S$NEER.xlsx
+++ b/data/S$NEER.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" saveExternalLinkValues="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2FAFF-FD68-4F82-BB5E-F0749B1A924B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06847CC-5286-4AB5-9B9B-4EE4366A6E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22930" yWindow="-110" windowWidth="30940" windowHeight="16900" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1999-00" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="2017-18" sheetId="43" r:id="rId10"/>
     <sheet name="2019-20" sheetId="44" r:id="rId11"/>
     <sheet name="2021-22" sheetId="45" r:id="rId12"/>
-    <sheet name="2023" sheetId="46" r:id="rId13"/>
+    <sheet name="2023-24" sheetId="46" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2015-16'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2017-18'!$A$1:$B$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2019-20'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2021-22'!$A$1:$C$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023'!$A$1:$C$58</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1999-00'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2001-02'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2003-04'!$1:$7</definedName>
@@ -40,7 +40,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="9">'2017-18'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="10">'2019-20'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="11">'2021-22'!$1:$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="12">'2023'!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="12">'2023-24'!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="122">
   <si>
     <t xml:space="preserve">1999 Jan 8  </t>
   </si>
@@ -419,10 +419,13 @@
     <t>S$NEER - 2021 to 2022</t>
   </si>
   <si>
-    <t>S$NEER - 2023</t>
+    <t>S$NEER - 2023 to 2024</t>
   </si>
   <si>
-    <t>Data Last Updated: 4 December 2023, 12pm</t>
+    <t xml:space="preserve">2024 Jan 5  </t>
+  </si>
+  <si>
+    <t>Data Last Updated: 29 January 2024, 8am</t>
   </si>
 </sst>
 </file>
@@ -5642,13 +5645,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -6202,33 +6205,132 @@
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
+      <c r="A55" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="11">
+        <v>138.16999999999999</v>
+      </c>
+      <c r="D55" s="23"/>
+      <c r="E55" s="15"/>
       <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="19">
+        <v>8</v>
+      </c>
+      <c r="B56" s="11">
+        <v>138.08000000000001</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="15"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="19">
+        <v>15</v>
+      </c>
+      <c r="B57" s="11">
+        <v>138.07</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="15"/>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="19">
+        <v>22</v>
+      </c>
+      <c r="B58" s="11">
+        <v>138.22999999999999</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="15"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="19">
+        <v>29</v>
+      </c>
+      <c r="B59" s="11">
+        <v>138.34</v>
+      </c>
+      <c r="D59" s="23"/>
+      <c r="E59" s="15"/>
+      <c r="G59" s="16"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="11">
+        <v>138.24</v>
+      </c>
+      <c r="D60" s="23"/>
+      <c r="E60" s="15"/>
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
+        <v>12</v>
+      </c>
+      <c r="B61" s="11">
+        <v>138.29</v>
+      </c>
+      <c r="D61" s="23"/>
+      <c r="E61" s="15"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="24"/>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="19">
+        <v>19</v>
+      </c>
+      <c r="B62" s="11">
+        <v>138.16</v>
+      </c>
+      <c r="D62" s="23"/>
+      <c r="E62" s="15"/>
+      <c r="G62" s="16"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="19">
+        <v>26</v>
+      </c>
+      <c r="B63" s="11">
+        <v>138.41</v>
+      </c>
+      <c r="D63" s="23"/>
+      <c r="E63" s="15"/>
+      <c r="G63" s="16"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="G64" s="16"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="16"/>
+    </row>
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A66" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="16"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="16"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="16"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="16"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15237,6 +15339,57 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Url>https://home.dms.mas.gov.sg/_layouts/15/MASGlobalID/DocAveRedirect.aspx?DocId=bcf8a310-0c7f-418e-8782-91dee3898d42&amp;SiteID=5a6bb544-3bf9-4cf9-9775-b4c0c62fec92_eb98edff-86eb-4b42-ad62-1a553ba43033</Url>
+      <Description>bcf8a310-0c7f-418e-8782-91dee3898d42</Description>
+    </_dlc_DocIdUrl>
+    <Workflow xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Workflow>
+    <b1f4bea4dbaa4479a68e8cee40e226b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b1f4bea4dbaa4479a68e8cee40e226b9>
+    <pb016fef86a642189c1d23bc7cb88f0e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </pb016fef86a642189c1d23bc7cb88f0e>
+    <h63e849b28044e64bfbe5f5fa7b8c866 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h63e849b28044e64bfbe5f5fa7b8c866>
+    <TaxCatchAll xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
+    <a2b7da5d9b994f938881636f0a7c63d6 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </a2b7da5d9b994f938881636f0a7c63d6>
+    <g5d17599f0654139ac247b509bd42854 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g5d17599f0654139ac247b509bd42854>
+    <h6ac82fb60e7404bb7825d9f5fed2f8a xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h6ac82fb60e7404bb7825d9f5fed2f8a>
+    <ee94ffbfe3174827a439912fa17811b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ee94ffbfe3174827a439912fa17811b9>
+    <c569feee562949f193efcc6c33983d2e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c569feee562949f193efcc6c33983d2e>
+    <Document_x0020_Date xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">2021-10-28T00:15:01+00:00</Document_x0020_Date>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MAS Team Document" ma:contentTypeID="0x0101003618E443DE96424ABE734F4442FBF2B30100A049349C955CBC409819E2464551F052" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document specific to MAS Team Collaboration." ma:contentTypeScope="" ma:versionID="99b6c2e5e6a62f4a47c2c9b80d9ed879">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a90f38b-cee7-4289-b705-21e4ceceb96b" xmlns:ns4="eb98edff-86eb-4b42-ad62-1a553ba43033" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1700ab521322483cad2fe357906d8f66" ns2:_="" ns4:_="">
     <xsd:import namespace="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
@@ -15513,57 +15666,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Url>https://home.dms.mas.gov.sg/_layouts/15/MASGlobalID/DocAveRedirect.aspx?DocId=bcf8a310-0c7f-418e-8782-91dee3898d42&amp;SiteID=5a6bb544-3bf9-4cf9-9775-b4c0c62fec92_eb98edff-86eb-4b42-ad62-1a553ba43033</Url>
-      <Description>bcf8a310-0c7f-418e-8782-91dee3898d42</Description>
-    </_dlc_DocIdUrl>
-    <Workflow xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Workflow>
-    <b1f4bea4dbaa4479a68e8cee40e226b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b1f4bea4dbaa4479a68e8cee40e226b9>
-    <pb016fef86a642189c1d23bc7cb88f0e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </pb016fef86a642189c1d23bc7cb88f0e>
-    <h63e849b28044e64bfbe5f5fa7b8c866 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h63e849b28044e64bfbe5f5fa7b8c866>
-    <TaxCatchAll xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
-    <a2b7da5d9b994f938881636f0a7c63d6 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </a2b7da5d9b994f938881636f0a7c63d6>
-    <g5d17599f0654139ac247b509bd42854 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g5d17599f0654139ac247b509bd42854>
-    <h6ac82fb60e7404bb7825d9f5fed2f8a xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h6ac82fb60e7404bb7825d9f5fed2f8a>
-    <ee94ffbfe3174827a439912fa17811b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ee94ffbfe3174827a439912fa17811b9>
-    <c569feee562949f193efcc6c33983d2e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c569feee562949f193efcc6c33983d2e>
-    <Document_x0020_Date xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">2021-10-28T00:15:01+00:00</Document_x0020_Date>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
   <ds:schemaRefs>
@@ -15573,6 +15675,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A6E1E2-BE9F-46D5-A72A-8F4CBCC2457C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15589,22 +15709,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/S$NEER.xlsx
+++ b/data/S$NEER.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" saveExternalLinkValues="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320CCD9B-ED51-49DC-BD7C-094CC1636BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8FAFC8-E61D-4532-98FA-F0F5B587EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2017-18'!$A$1:$B$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2019-20'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2021-22'!$A$1:$C$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1999-00'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2001-02'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2003-04'!$1:$7</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="122">
   <si>
     <t xml:space="preserve">1999 Jan 8  </t>
   </si>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">2024 Jan 5  </t>
   </si>
   <si>
-    <t>Data Last Updated: 4 March 2024, 12pm</t>
+    <t>Data Last Updated: 1 April 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -438,10 +438,17 @@
     <numFmt numFmtId="166" formatCode="0.00___)"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -529,9 +536,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -547,7 +556,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,10 +568,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -571,24 +580,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0D69F294-4237-42BD-97A8-9C016C823539}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{71FC65E0-A50E-48DC-9272-CBB6D051A1FE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1925,7 +1936,7 @@
   <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.4960629921259843" right="0.74803149606299213" top="0.74803149606299213" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -5645,13 +5656,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J81" sqref="J81"/>
+      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6348,33 +6359,88 @@
       <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
+      <c r="A68" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="11">
+        <v>138.53</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="15"/>
       <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="19">
+        <v>8</v>
+      </c>
+      <c r="B69" s="11">
+        <v>138.66999999999999</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="15"/>
       <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="A70" s="19">
+        <v>15</v>
+      </c>
+      <c r="B70" s="11">
+        <v>138.84</v>
+      </c>
+      <c r="D70" s="23"/>
+      <c r="E70" s="15"/>
       <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="19">
+        <v>22</v>
+      </c>
+      <c r="B71" s="11">
+        <v>138.79</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="15"/>
       <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="19">
+        <v>28</v>
+      </c>
+      <c r="B72" s="11">
+        <v>138.72999999999999</v>
+      </c>
+      <c r="D72" s="23"/>
+      <c r="E72" s="15"/>
       <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
       <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G74" s="16"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="24"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="16"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7384,7 +7450,7 @@
   <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.4960629921259843" right="0.74803149606299213" top="0.74803149606299213" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -8536,7 +8602,7 @@
   <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.4960629921259843" right="0.74803149606299213" top="0.55118110236220474" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -9550,7 +9616,7 @@
   <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.4960629921259843" right="0.74803149606299213" top="0.74803149606299213" bottom="0.23622047244094491" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -10615,7 +10681,7 @@
   <mergeCells count="1">
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="1.4960629921259843" right="0.74803149606299213" top="0.74803149606299213" bottom="0.23622047244094491" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/data/S$NEER.xlsx
+++ b/data/S$NEER.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" saveExternalLinkValues="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8FAFC8-E61D-4532-98FA-F0F5B587EF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766DEF51-AC8C-43CC-A849-B8A223CD32C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2017-18'!$A$1:$B$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2019-20'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2021-22'!$A$1:$C$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$80</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1999-00'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2001-02'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2003-04'!$1:$7</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="122">
   <si>
     <t xml:space="preserve">1999 Jan 8  </t>
   </si>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">2024 Jan 5  </t>
   </si>
   <si>
-    <t>Data Last Updated: 1 April 2024, 12pm</t>
+    <t>Data Last Updated: 6 May 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -5656,13 +5656,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B95" sqref="B95"/>
+      <selection pane="bottomRight" activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6414,33 +6414,77 @@
       <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="11">
+        <v>138.71</v>
+      </c>
+      <c r="D73" s="23"/>
+      <c r="E73" s="15"/>
       <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
+        <v>12</v>
+      </c>
+      <c r="B74" s="11">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="D74" s="23"/>
+      <c r="E74" s="15"/>
       <c r="G74" s="16"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="A75" s="19">
+        <v>19</v>
+      </c>
+      <c r="B75" s="11">
+        <v>138.61000000000001</v>
+      </c>
+      <c r="D75" s="23"/>
+      <c r="E75" s="15"/>
       <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="19">
+        <v>26</v>
+      </c>
+      <c r="B76" s="11">
+        <v>138.69</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="15"/>
       <c r="G76" s="16"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
       <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G78" s="16"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="G79" s="16"/>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="24"/>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G83" s="16"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15444,62 +15488,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Url>https://home.dms.mas.gov.sg/_layouts/15/MASGlobalID/DocAveRedirect.aspx?DocId=bcf8a310-0c7f-418e-8782-91dee3898d42&amp;SiteID=5a6bb544-3bf9-4cf9-9775-b4c0c62fec92_eb98edff-86eb-4b42-ad62-1a553ba43033</Url>
-      <Description>bcf8a310-0c7f-418e-8782-91dee3898d42</Description>
-    </_dlc_DocIdUrl>
-    <Workflow xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Workflow>
-    <b1f4bea4dbaa4479a68e8cee40e226b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b1f4bea4dbaa4479a68e8cee40e226b9>
-    <pb016fef86a642189c1d23bc7cb88f0e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </pb016fef86a642189c1d23bc7cb88f0e>
-    <h63e849b28044e64bfbe5f5fa7b8c866 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h63e849b28044e64bfbe5f5fa7b8c866>
-    <TaxCatchAll xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
-    <a2b7da5d9b994f938881636f0a7c63d6 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </a2b7da5d9b994f938881636f0a7c63d6>
-    <g5d17599f0654139ac247b509bd42854 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g5d17599f0654139ac247b509bd42854>
-    <h6ac82fb60e7404bb7825d9f5fed2f8a xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h6ac82fb60e7404bb7825d9f5fed2f8a>
-    <ee94ffbfe3174827a439912fa17811b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ee94ffbfe3174827a439912fa17811b9>
-    <c569feee562949f193efcc6c33983d2e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c569feee562949f193efcc6c33983d2e>
-    <Document_x0020_Date xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">2021-10-28T00:15:01+00:00</Document_x0020_Date>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="afabadb4-2257-48ec-869f-64421b8f49cd" ContentTypeId="0x0101003618E443DE96424ABE734F4442FBF2B301" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MAS Team Document" ma:contentTypeID="0x0101003618E443DE96424ABE734F4442FBF2B30100A049349C955CBC409819E2464551F052" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document specific to MAS Team Collaboration." ma:contentTypeScope="" ma:versionID="99b6c2e5e6a62f4a47c2c9b80d9ed879">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a90f38b-cee7-4289-b705-21e4ceceb96b" xmlns:ns4="eb98edff-86eb-4b42-ad62-1a553ba43033" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1700ab521322483cad2fe357906d8f66" ns2:_="" ns4:_="">
     <xsd:import namespace="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
@@ -15776,25 +15769,58 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Url>https://home.dms.mas.gov.sg/_layouts/15/MASGlobalID/DocAveRedirect.aspx?DocId=bcf8a310-0c7f-418e-8782-91dee3898d42&amp;SiteID=5a6bb544-3bf9-4cf9-9775-b4c0c62fec92_eb98edff-86eb-4b42-ad62-1a553ba43033</Url>
+      <Description>bcf8a310-0c7f-418e-8782-91dee3898d42</Description>
+    </_dlc_DocIdUrl>
+    <Workflow xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Workflow>
+    <b1f4bea4dbaa4479a68e8cee40e226b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b1f4bea4dbaa4479a68e8cee40e226b9>
+    <pb016fef86a642189c1d23bc7cb88f0e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </pb016fef86a642189c1d23bc7cb88f0e>
+    <h63e849b28044e64bfbe5f5fa7b8c866 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h63e849b28044e64bfbe5f5fa7b8c866>
+    <TaxCatchAll xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
+    <a2b7da5d9b994f938881636f0a7c63d6 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </a2b7da5d9b994f938881636f0a7c63d6>
+    <g5d17599f0654139ac247b509bd42854 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g5d17599f0654139ac247b509bd42854>
+    <h6ac82fb60e7404bb7825d9f5fed2f8a xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h6ac82fb60e7404bb7825d9f5fed2f8a>
+    <ee94ffbfe3174827a439912fa17811b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ee94ffbfe3174827a439912fa17811b9>
+    <c569feee562949f193efcc6c33983d2e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c569feee562949f193efcc6c33983d2e>
+    <Document_x0020_Date xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">2021-10-28T00:15:01+00:00</Document_x0020_Date>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -15802,7 +15828,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A6E1E2-BE9F-46D5-A72A-8F4CBCC2457C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15819,4 +15845,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/S$NEER.xlsx
+++ b/data/S$NEER.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" saveExternalLinkValues="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6BAE58-A813-4FCD-80FD-911BE2E9ADAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC13DD-B39F-4D67-802C-D195372C9F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2017-18'!$A$1:$B$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2019-20'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2021-22'!$A$1:$C$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$89</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1999-00'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2001-02'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2003-04'!$1:$7</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="122">
   <si>
     <t xml:space="preserve">1999 Jan 8  </t>
   </si>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">2024 Jan 5  </t>
   </si>
   <si>
-    <t>Data Last Updated: 3 June 2024, 12pm</t>
+    <t>Data Last Updated: 1 July 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -5656,13 +5656,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q118" sqref="Q118"/>
+      <selection pane="bottomRight" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6513,33 +6513,77 @@
       <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="11">
+        <v>139.09</v>
+      </c>
+      <c r="D82" s="23"/>
+      <c r="E82" s="15"/>
       <c r="G82" s="16"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="19">
+        <v>14</v>
+      </c>
+      <c r="B83" s="11">
+        <v>139.11000000000001</v>
+      </c>
+      <c r="D83" s="23"/>
+      <c r="E83" s="15"/>
       <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="A84" s="19">
+        <v>21</v>
+      </c>
+      <c r="B84" s="11">
+        <v>139.19</v>
+      </c>
+      <c r="D84" s="23"/>
+      <c r="E84" s="15"/>
       <c r="G84" s="16"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="19">
+        <v>28</v>
+      </c>
+      <c r="B85" s="11">
+        <v>139.18</v>
+      </c>
+      <c r="D85" s="23"/>
+      <c r="E85" s="15"/>
       <c r="G85" s="16"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
       <c r="G86" s="16"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G87" s="16"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="G88" s="16"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="24"/>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="16"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G90" s="16"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="16"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G92" s="16"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15543,62 +15587,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Url>https://home.dms.mas.gov.sg/_layouts/15/MASGlobalID/DocAveRedirect.aspx?DocId=bcf8a310-0c7f-418e-8782-91dee3898d42&amp;SiteID=5a6bb544-3bf9-4cf9-9775-b4c0c62fec92_eb98edff-86eb-4b42-ad62-1a553ba43033</Url>
-      <Description>bcf8a310-0c7f-418e-8782-91dee3898d42</Description>
-    </_dlc_DocIdUrl>
-    <Workflow xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Workflow>
-    <b1f4bea4dbaa4479a68e8cee40e226b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b1f4bea4dbaa4479a68e8cee40e226b9>
-    <pb016fef86a642189c1d23bc7cb88f0e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </pb016fef86a642189c1d23bc7cb88f0e>
-    <h63e849b28044e64bfbe5f5fa7b8c866 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h63e849b28044e64bfbe5f5fa7b8c866>
-    <TaxCatchAll xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
-    <a2b7da5d9b994f938881636f0a7c63d6 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </a2b7da5d9b994f938881636f0a7c63d6>
-    <g5d17599f0654139ac247b509bd42854 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </g5d17599f0654139ac247b509bd42854>
-    <h6ac82fb60e7404bb7825d9f5fed2f8a xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h6ac82fb60e7404bb7825d9f5fed2f8a>
-    <ee94ffbfe3174827a439912fa17811b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ee94ffbfe3174827a439912fa17811b9>
-    <c569feee562949f193efcc6c33983d2e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c569feee562949f193efcc6c33983d2e>
-    <Document_x0020_Date xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">2021-10-28T00:15:01+00:00</Document_x0020_Date>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="afabadb4-2257-48ec-869f-64421b8f49cd" ContentTypeId="0x0101003618E443DE96424ABE734F4442FBF2B301" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MAS Team Document" ma:contentTypeID="0x0101003618E443DE96424ABE734F4442FBF2B30100A049349C955CBC409819E2464551F052" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document specific to MAS Team Collaboration." ma:contentTypeScope="" ma:versionID="99b6c2e5e6a62f4a47c2c9b80d9ed879">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a90f38b-cee7-4289-b705-21e4ceceb96b" xmlns:ns4="eb98edff-86eb-4b42-ad62-1a553ba43033" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1700ab521322483cad2fe357906d8f66" ns2:_="" ns4:_="">
     <xsd:import namespace="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
@@ -15875,25 +15868,58 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Url>https://home.dms.mas.gov.sg/_layouts/15/MASGlobalID/DocAveRedirect.aspx?DocId=bcf8a310-0c7f-418e-8782-91dee3898d42&amp;SiteID=5a6bb544-3bf9-4cf9-9775-b4c0c62fec92_eb98edff-86eb-4b42-ad62-1a553ba43033</Url>
+      <Description>bcf8a310-0c7f-418e-8782-91dee3898d42</Description>
+    </_dlc_DocIdUrl>
+    <Workflow xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Workflow>
+    <b1f4bea4dbaa4479a68e8cee40e226b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b1f4bea4dbaa4479a68e8cee40e226b9>
+    <pb016fef86a642189c1d23bc7cb88f0e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </pb016fef86a642189c1d23bc7cb88f0e>
+    <h63e849b28044e64bfbe5f5fa7b8c866 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h63e849b28044e64bfbe5f5fa7b8c866>
+    <TaxCatchAll xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
+    <a2b7da5d9b994f938881636f0a7c63d6 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </a2b7da5d9b994f938881636f0a7c63d6>
+    <g5d17599f0654139ac247b509bd42854 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </g5d17599f0654139ac247b509bd42854>
+    <h6ac82fb60e7404bb7825d9f5fed2f8a xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h6ac82fb60e7404bb7825d9f5fed2f8a>
+    <ee94ffbfe3174827a439912fa17811b9 xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ee94ffbfe3174827a439912fa17811b9>
+    <c569feee562949f193efcc6c33983d2e xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c569feee562949f193efcc6c33983d2e>
+    <Document_x0020_Date xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">2021-10-28T00:15:01+00:00</Document_x0020_Date>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -15901,7 +15927,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A6E1E2-BE9F-46D5-A72A-8F4CBCC2457C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15918,4 +15944,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/S$NEER.xlsx
+++ b/data/S$NEER.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" saveExternalLinkValues="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A809CCE-E0EB-44B0-B254-542AE3FC4706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346FAE1D-2319-4CEB-95D4-74011E271B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2017-18'!$A$1:$B$112</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'2019-20'!$A$1:$B$113</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'2021-22'!$A$1:$C$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'2023-24'!$A$1:$C$102</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1999-00'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2001-02'!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2003-04'!$1:$7</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="122">
   <si>
     <t xml:space="preserve">1999 Jan 8  </t>
   </si>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">2024 Jan 5  </t>
   </si>
   <si>
-    <t>Data Last Updated: 2 September 2024, 12pm</t>
+    <t>Data Last Updated: 7 October 2024, 12pm</t>
   </si>
 </sst>
 </file>
@@ -5656,13 +5656,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y118" sqref="Y118"/>
+      <selection pane="bottomRight" activeCell="M142" sqref="M142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6656,33 +6656,77 @@
       <c r="G94" s="16"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="11">
+        <v>139.58000000000001</v>
+      </c>
+      <c r="D95" s="23"/>
+      <c r="E95" s="15"/>
       <c r="G95" s="16"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="19">
+        <v>13</v>
+      </c>
+      <c r="B96" s="11">
+        <v>139.53</v>
+      </c>
+      <c r="D96" s="23"/>
+      <c r="E96" s="15"/>
       <c r="G96" s="16"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="A97" s="19">
+        <v>20</v>
+      </c>
+      <c r="B97" s="11">
+        <v>139.62</v>
+      </c>
+      <c r="D97" s="23"/>
+      <c r="E97" s="15"/>
       <c r="G97" s="16"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="19">
+        <v>27</v>
+      </c>
+      <c r="B98" s="11">
+        <v>139.74</v>
+      </c>
+      <c r="D98" s="23"/>
+      <c r="E98" s="15"/>
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="6"/>
       <c r="G99" s="16"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G100" s="16"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="G101" s="16"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="24"/>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="16"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="16"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="16"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15686,6 +15730,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="afabadb4-2257-48ec-869f-64421b8f49cd" ContentTypeId="0x0101003618E443DE96424ABE734F4442FBF2B301" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="3a90f38b-cee7-4289-b705-21e4ceceb96b">bcf8a310-0c7f-418e-8782-91dee3898d42</_dlc_DocId>
@@ -15727,7 +15785,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MAS Team Document" ma:contentTypeID="0x0101003618E443DE96424ABE734F4442FBF2B30100A049349C955CBC409819E2464551F052" ma:contentTypeVersion="57" ma:contentTypeDescription="Create a new document specific to MAS Team Collaboration." ma:contentTypeScope="" ma:versionID="99b6c2e5e6a62f4a47c2c9b80d9ed879">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a90f38b-cee7-4289-b705-21e4ceceb96b" xmlns:ns4="eb98edff-86eb-4b42-ad62-1a553ba43033" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1700ab521322483cad2fe357906d8f66" ns2:_="" ns4:_="">
     <xsd:import namespace="3a90f38b-cee7-4289-b705-21e4ceceb96b"/>
@@ -16004,21 +16062,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="afabadb4-2257-48ec-869f-64421b8f49cd" ContentTypeId="0x0101003618E443DE96424ABE734F4442FBF2B301" PreviousValue="false"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2ABF87FA-AF0C-4CFA-A2B7-3FDB3EF177BB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16028,7 +16088,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A6E1E2-BE9F-46D5-A72A-8F4CBCC2457C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16045,20 +16105,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF67AFA4-B68A-4B26-819B-29BF0526CEAD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98C795BD-E3DF-4E21-A86C-BA6DB881499A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>